--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76C029-D28E-460F-98D9-23302CFA56E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13417B2E-EB1E-4F58-A862-38440A9FECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
     <sheet name="게임 결과에 따른 재화" sheetId="2" r:id="rId2"/>
     <sheet name="재화의 사용처" sheetId="3" r:id="rId3"/>
+    <sheet name="캐릭터 재화 - 확정 구매, 가챠" sheetId="6" r:id="rId4"/>
+    <sheet name="꾸미기 요소 - 가구" sheetId="4" r:id="rId5"/>
+    <sheet name="꾸미기 요소 - 벽, 바닥" sheetId="5" r:id="rId6"/>
+    <sheet name="미니게임 해금" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*꾸미기 요소 종류(가구 - 카펫, 의자, 테이블, 화분 / 벽 - 벽지, 창문, 시계 / 바닥 - 타일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.미니게임 뒷배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*각 미니게임 별 뒷배경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 중복이다 - 조각선택권 1개 -&gt; 20개 원하는 캐릭터 선택뽑기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 모든 요소 하나로 묶어서 가챠, (요소별 구역나눠서 가챠), 선택구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-업적 달성시 해금(재화 사용 x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +118,66 @@
   </si>
   <si>
     <t>-색칠놀이 -&gt;가격 제일 낮게, 단순 패턴 -&gt; 중간 가격, 디자인 소량 첨가 -&gt; 고가,  디자인 정성 높은거 -&gt;최고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.미니게임 뒷배경 // 업적파트로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 모든 요소 하나로 묶어서 가챠, [요소별 구역나눠서 가챠], 선택구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*꾸미기 요소 종류(가구 - 카펫, 의자, 테이블, 화분, 창문(벽가구), 시계(벽가구) / 벽, 바닥 - 벽지, 타일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸미기 요소 - 가구 (벽가구 요소 *시계, 창문 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸미기 요소 - 벽, 바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 재화 - 확정 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*가챠 파트 쓰기전에 캐릭터 재화 - 가챠 써둘 것 (15pt, 굵게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 중복이다 - 조각 1개 -&gt; 20개 원하는 캐릭터 선택뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐릭터의 구분 - 일반, 희귀, 유니크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1캐릭터의 획득처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 -7종 희귀 -10종 유니크 -3종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 - 기본 제공(1개)&lt;-회의때 물어보는 걸로, 확정 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공통 - 조각 20개, 가챠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,12 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -229,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,32 +601,32 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -607,12 +655,12 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -632,7 +680,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -649,21 +697,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -674,60 +722,178 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
+      <c r="A10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
+      <c r="A12" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
+      <c r="A13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13417B2E-EB1E-4F58-A862-38440A9FECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510390F-4190-4723-B890-E6EA730EA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EDE4D0-AB0A-4B77-9476-5CECABC00ADC}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -649,7 +649,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510390F-4190-4723-B890-E6EA730EA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F64430-88A0-4D83-9184-5FF96E51D645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*캐릭터 획득 방법 - 확정 구매? 가챠? -확정구매라면 모든 캐릭터 동일 가격? // - 가챠라면 중복 가능? - 중복이 가능하다면 중복발생 시 보상은? - 보상 종류 *재화 페이백, 캐릭터 조각선택권 등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.꾸미기 요소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-순서대로 여는, 잠겨있는 것 중에 골라서 - 모든 게임의 가격 동일/ 열린게임이 많을수록 다음 게임 오픈에 필요한 재화량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Minigame 기획서 재화 파트 - 강민재, 김현지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꾸미기 요소 - 가구 (벽가구 요소 *시계, 창문 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꾸미기 요소 - 벽, 바닥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 중복이다 - 조각 1개 -&gt; 20개 원하는 캐릭터 선택뽑기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,15 +153,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 일반 -7종 희귀 -10종 유니크 -3종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 일반 - 기본 제공(1개)&lt;-회의때 물어보는 걸로, 확정 구매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 공통 - 조각 20개, 가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*캐릭터 획득 방법 - 확정 구매? 가챠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)확정구매 -&gt; 모든 캐릭터 동일 가격?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)가챠 -&gt; 중복 가능? -&gt; 중복이 가능하다면, 중복 발생 시 보상 -&gt; 재화 페이백, 캐릭터 조각선택권 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   *만약 중복이다 - 조각 1개 -&gt; 20개 원하는 캐릭터 선택뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 -4종 희귀 -8종 유니크 -3종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열린게임이 많을수록 다음 게임 오픈에 필요한 재화량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*가구 요소 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸미기 요소 - 가구 (벽가구 요소 시계, 창문 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)단순패턴_최저가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)디자인 소량 첨가_중간 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)디자인 정성 높은거_최고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)동그란 단순 나무 의자_최저가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)동그란 단순 나무 테이블_최저가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)고오급 대리석 테이블_최고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)고오급 소파_최고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)좀 더 정성 들어간 튼튼 의자_중간 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)좀 더 정성 들어간 테이블(크기 업)_중간 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)선인장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문(벽가구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분(가격 동일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 순서대로 열기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-벽, 바닥(feat.색칠놀이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)기본 화이트 창틀_최저가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)고급 창틀(윤기)_중간 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)화려 창틀(창문 밖 예쁘게 꾸밈 ex.별똥별)_최고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계(벽가구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카펫(feat.색칠놀이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카펫, 의자, 테이블, 화분, 창문(벽가구), 시계(벽가구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)기본 시계_최저가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)뻐꾸기 시계_중간 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)궤종 시계(좀 삐까뻔쩍한 느낌)_최고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.기본규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)미니게임은 게임 순서대로 열 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)열린게임이 많을수록 다음 게임 오픈에 필요한 재화량 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임1은 기본 제공된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임2를 해금하기 위해서는 n의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임3을 해금하기 위해서는 n^2의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임4를 해금하기 위해서는 n^3의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임5를 해금하기 위해서는 n^4의 재화가 필요하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +375,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -256,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,15 +753,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EDE4D0-AB0A-4B77-9476-5CECABC00ADC}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -613,7 +772,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -628,7 +787,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -648,43 +807,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883EF169-EA1D-4DD0-AC2C-AE5CEFA37873}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -697,114 +856,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +1000,16 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -841,15 +1020,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -861,17 +1167,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -882,17 +1208,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F64430-88A0-4D83-9184-5FF96E51D645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D911DC1E-C192-4B71-A03D-38F512235808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
-    <sheet name="게임 결과에 따른 재화" sheetId="2" r:id="rId2"/>
-    <sheet name="재화의 사용처" sheetId="3" r:id="rId3"/>
-    <sheet name="캐릭터 재화 - 확정 구매, 가챠" sheetId="6" r:id="rId4"/>
-    <sheet name="꾸미기 요소 - 가구" sheetId="4" r:id="rId5"/>
-    <sheet name="꾸미기 요소 - 벽, 바닥" sheetId="5" r:id="rId6"/>
-    <sheet name="미니게임 해금" sheetId="7" r:id="rId7"/>
+    <sheet name="상점 메인화면" sheetId="8" r:id="rId2"/>
+    <sheet name="게임 결과에 따른 재화" sheetId="2" r:id="rId3"/>
+    <sheet name="재화의 사용처" sheetId="3" r:id="rId4"/>
+    <sheet name="캐릭터 재화 - 확정 구매, 가챠" sheetId="6" r:id="rId5"/>
+    <sheet name="꾸미기 요소 - 가구" sheetId="4" r:id="rId6"/>
+    <sheet name="꾸미기 요소 - 벽, 바닥" sheetId="5" r:id="rId7"/>
+    <sheet name="미니게임 해금" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,110 +194,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)단순패턴_최저가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)디자인 소량 첨가_중간 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)디자인 정성 높은거_최고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)동그란 단순 나무 의자_최저가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)동그란 단순 나무 테이블_최저가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)고오급 대리석 테이블_최고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)고오급 소파_최고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)좀 더 정성 들어간 튼튼 의자_중간 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)좀 더 정성 들어간 테이블(크기 업)_중간 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)선인장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창문(벽가구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화분(가격 동일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미니게임 순서대로 열기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-벽, 바닥(feat.색칠놀이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)기본 화이트 창틀_최저가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)고급 창틀(윤기)_중간 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)화려 창틀(창문 밖 예쁘게 꾸밈 ex.별똥별)_최고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시계(벽가구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카펫(feat.색칠놀이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카펫, 의자, 테이블, 화분, 창문(벽가구), 시계(벽가구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)기본 시계_최저가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)뻐꾸기 시계_중간 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)궤종 시계(좀 삐까뻔쩍한 느낌)_최고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.기본규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,23 +210,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미니게임1은 기본 제공된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임2를 해금하기 위해서는 n의 재화가 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임3을 해금하기 위해서는 n^2의 재화가 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임4를 해금하기 위해서는 n^3의 재화가 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임5를 해금하기 위해서는 n^4의 재화가 필요하다</t>
+    <t>미니게임1,2는 기본 제공된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임3를 해금하기 위해서는 n의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임4을 해금하기 위해서는 2n의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임5를 해금하기 위해서는 3n의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁, 의자], 장식세트, 침대, 카펫, 화분, 창문(벽가구), 시계(벽가구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 메인화면 하단에 위치해 있는 상점 버튼을 누르면 상점으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상점에 들어가는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 상점 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)상점 최상단 왼쪽에는 현재 재화량이 표시된다. 오른쪽에는 순서대로 마이룸, 홈, 설정 버튼이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)마이룸 메뉴 선택시 -&gt; "마음에 드는 테마로 마이룸을 꾸며봐~"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)캐릭터 메뉴 선택시 -&gt; "원하는 캐릭터를 구매할 수 있어~" (확정구매라면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)상점 하단에는 마이룸, 캐릭터 메뉴가 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)마이룸 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들을 나누어 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)캐릭터 메뉴에는 일반, 희귀, 유니크 캐릭터를 나누어 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각 버튼을 누르면 해당하는 화면으로 이동한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  마이룸 메뉴를 선택중에는 캐릭터 메뉴를 그림자처럼 살짝 어둡게 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*코인이벤트?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1)이스터에그(ex.크아) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)출석보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 맵 따로 만들기 -&gt; 미니게임 8번 플레이하면 40% 확률로 재화 맵 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 미션 설정 -&gt; 1일차 n원 // 2일차 n+500원 // 3일차 n+1000원 … (+원은 임의 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니멀, 클래식, 빈티지, 러블리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)미니멀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁,의자], 침대, 카펫, 창문, 시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)클래식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)빈티지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)러블리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*테마 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*테마별 리스트 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*테마 이외것들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분, 장식세트(테이블 위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)상점 중앙에는 캐릭터가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,14 +450,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,6 +474,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566756</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C44C775-D59D-5101-EAE3-0390604B3539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7607300" y="203200"/>
+          <a:ext cx="3525856" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,32 +837,32 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -804,11 +881,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
+  <dimension ref="B3:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883EF169-EA1D-4DD0-AC2C-AE5CEFA37873}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -854,12 +1008,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -880,12 +1034,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -948,7 +1102,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -984,6 +1138,31 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1018,144 +1197,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1165,12 +1295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1181,23 +1311,13 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
+      <c r="A3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1206,12 +1326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1223,42 +1343,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D911DC1E-C192-4B71-A03D-38F512235808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217BB64-F888-4BF7-B462-003E83141FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꾸미기 요소 - 벽, 바닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 재화 - 확정 구매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[식탁, 의자], 장식세트, 침대, 카펫, 화분, 창문(벽가구), 시계(벽가구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 메인화면 하단에 위치해 있는 상점 버튼을 누르면 상점으로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,47 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)상점 최상단 왼쪽에는 현재 재화량이 표시된다. 오른쪽에는 순서대로 마이룸, 홈, 설정 버튼이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ex)마이룸 메뉴 선택시 -&gt; "마음에 드는 테마로 마이룸을 꾸며봐~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ex)캐릭터 메뉴 선택시 -&gt; "원하는 캐릭터를 구매할 수 있어~" (확정구매라면)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)상점 하단에는 마이룸, 캐릭터 메뉴가 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)마이룸 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들을 나누어 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)캐릭터 메뉴에는 일반, 희귀, 유니크 캐릭터를 나누어 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>각 버튼을 누르면 해당하는 화면으로 이동한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  마이룸 메뉴를 선택중에는 캐릭터 메뉴를 그림자처럼 살짝 어둡게 만든다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[식탁,의자], 침대, 카펫, 창문, 시계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2)클래식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,11 +290,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화분, 장식세트(테이블 위)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)상점 중앙에는 캐릭터가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다.</t>
+    <t xml:space="preserve">  ex)마이룸 메뉴 선택시 -&gt; "마음에 드는 테마로 마이룸을 꾸며보게나"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸미기 요소 - 벽지, 바닥지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)상점 최상단 왼쪽에는 현재 재화량이 표시된다. 오른쪽에는 마이룸 버튼이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)상점 중앙에는 판다가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)판다는 메뉴 선택에 따라 모습이 바뀐다. (캐릭터 메뉴 선택시 -&gt; 악인 판다 모습으로 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)캐릭터 메뉴에는 일반, 희귀, 유니크 캐릭터를 나누어 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)상점 하단에는 마이룸, 캐릭터 메뉴가 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)마이룸 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들을 나누어 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6)마이룸 요소를 push시 해당 가구들이 병렬적으로 보여진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8)캐릭터 메뉴를 push시 common, rare unique 캐릭터들이 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  첫 화면은 common 캐릭터들이 보여지고, 오른쪽 화살표를 누르면 rare 캐릭터, 다시 한번 누르면 unique 캐릭터들이 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)캐릭터 메뉴 선택시 -&gt; "너의 친구들을 구해보게…돈 주면 안 잡아먹지"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분, 장식세트(테이블 위), 벽걸이 선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁, 의자], 장식세트(식탁 위), 침대, 옷장, 카페트, 화분, 창문(벽가구), 시계(벽가구), 벽걸이 선반(벽가구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁,의자], 침대, 옷장, 카펫, 창문, 시계, 벽걸이 선반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,16 +479,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>566756</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>230206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -518,8 +517,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7607300" y="203200"/>
+          <a:off x="666750" y="3892550"/>
           <a:ext cx="3525856" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67604202-97BB-DF21-5BA8-A3AA80C808A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4451350" y="3898899"/>
+          <a:ext cx="2292349" cy="3583910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3703E62-2162-747A-66E9-46C5D6633802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7423150" y="3895844"/>
+          <a:ext cx="2254249" cy="3544331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,72 +981,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B3:B14"/>
+  <dimension ref="B3:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
-        <v>58</v>
+      <c r="B7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1030,17 +1144,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1055,7 +1169,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1102,67 +1216,67 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1183,12 +1297,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1201,91 +1315,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1300,24 +1414,24 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1338,42 +1452,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217BB64-F888-4BF7-B462-003E83141FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB89C4-6941-4E52-B991-F5CCB5C9D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*가구 요소 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꾸미기 요소 - 가구 (벽가구 요소 시계, 창문 포함)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2)클래식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)빈티지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4)러블리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*테마 이외것들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  ex)마이룸 메뉴 선택시 -&gt; "마음에 드는 테마로 마이룸을 꾸며보게나"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,15 +322,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화분, 장식세트(테이블 위), 벽걸이 선반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[식탁, 의자], 장식세트(식탁 위), 침대, 옷장, 카페트, 화분, 창문(벽가구), 시계(벽가구), 벽걸이 선반(벽가구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[식탁,의자], 침대, 옷장, 카펫, 창문, 시계, 벽걸이 선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)빈티지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)클래식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니멀 가격: 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니멀 가격: 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈티지 가격: 140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식 가격: 250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러블리 가격: 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식 가격: 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈티지 가격: 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러블리 가격: 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1층 가구 요소 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*2층 가구 요소 종류(2층 설명:테마별 세트 존재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층방(마이룸 확장 느낌), 카페, 영화관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)2층방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분, 장식세트(테이블 위), 벽걸이 선반, 티비, 스피커(큰거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*테마 이외것들(2층에도 적용 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선반, 소파, 창문, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*가구는 중복 구매 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)common 등급 캐릭터는 확정구매할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)rare, unique 등급 캐릭터는 가챠로만 획득 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rare(8종) 캐릭터 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,13 +674,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9644</xdr:rowOff>
+      <xdr:rowOff>28694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>431799</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>99575</xdr:rowOff>
+      <xdr:rowOff>118625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -617,7 +709,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7423150" y="3895844"/>
+          <a:off x="7423150" y="3914894"/>
           <a:ext cx="2254249" cy="3544331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -983,85 +1075,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
   <dimension ref="B3:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1168,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1126,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1216,7 +1308,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1256,27 +1348,27 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1287,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1303,6 +1395,21 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1313,93 +1420,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="G19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1411,27 +1551,77 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1457,37 +1647,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB89C4-6941-4E52-B991-F5CCB5C9D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A2D26-5FCC-485B-88C4-57909EF4DA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 일반 - 기본 제공(1개)&lt;-회의때 물어보는 걸로, 확정 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 공통 - 조각 20개, 가챠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,7 +434,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">rare(8종) 캐릭터 </t>
+    <t xml:space="preserve">가챠 확률 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common - 각 20%(합 60%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique - 각 2%(합 6%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare - 각 4.25%(합 34%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가챠 1회당 가격 - 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 재화 - 가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 - 기본 제공(1개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 common 캐릭터 가격 - 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가챠 5회(연차) 가격 - 900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가챠 중복 시 - 각 중복 당 조각(삼각형 유리조각) 1개 증정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common - 5개 rare - 15개 unique - 30개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,9 +1061,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1076,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1091,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1079,81 +1115,81 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1171,39 +1207,39 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1219,156 +1255,156 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1379,42 +1415,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1422,124 +1504,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="G19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1557,71 +1639,71 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1638,46 +1720,46 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A2D26-5FCC-485B-88C4-57909EF4DA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361376E1-9177-4132-9C3E-F0FF6DA3B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 메인화면 하단에 위치해 있는 상점 버튼을 누르면 상점으로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 상점에 들어가는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  마이룸 메뉴를 선택중에는 캐릭터 메뉴를 그림자처럼 살짝 어둡게 만든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*코인이벤트?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,54 +262,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  ex)마이룸 메뉴 선택시 -&gt; "마음에 드는 테마로 마이룸을 꾸며보게나"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꾸미기 요소 - 벽지, 바닥지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)상점 최상단 왼쪽에는 현재 재화량이 표시된다. 오른쪽에는 마이룸 버튼이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2)상점 중앙에는 판다가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)판다는 메뉴 선택에 따라 모습이 바뀐다. (캐릭터 메뉴 선택시 -&gt; 악인 판다 모습으로 변경)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7)캐릭터 메뉴에는 일반, 희귀, 유니크 캐릭터를 나누어 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)상점 하단에는 마이룸, 캐릭터 메뉴가 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)마이룸 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들을 나누어 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6)마이룸 요소를 push시 해당 가구들이 병렬적으로 보여진다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8)캐릭터 메뉴를 push시 common, rare unique 캐릭터들이 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  첫 화면은 common 캐릭터들이 보여지고, 오른쪽 화살표를 누르면 rare 캐릭터, 다시 한번 누르면 unique 캐릭터들이 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ex)캐릭터 메뉴 선택시 -&gt; "너의 친구들을 구해보게…돈 주면 안 잡아먹지"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[식탁, 의자], 장식세트(식탁 위), 침대, 옷장, 카페트, 화분, 창문(벽가구), 시계(벽가구), 벽걸이 선반(벽가구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +427,54 @@
   </si>
   <si>
     <t>common - 5개 rare - 15개 unique - 30개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 메인화면 하단에 위치해 있는 상점 버튼을 누르면 두가지 상점 아이콘(가구 상점, 캐릭터 상점)이 등장한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 가구상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)최상단 왼쪽에는 현재 재화량이 표시된다. 오른쪽에는 마이룸 버튼이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)"마음에 드는 테마로 마이룸을 꾸며보게나"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)가구 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들을 나누어 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 캐릭터상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)"친구들을 구해보게나.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)캐릭터 메뉴에는 common(확정구매), [rare, unique](가챠)를 나누어 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)'common 등급 구매하기 ' 메뉴를 누르면 common 등급 캐릭터 3종이 병렬적으로 보여지며 캐릭터 아래에는 가격이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5)'rare, unique 등급 뽑으러 가기' 메뉴를 누르면 주변이 어두워지면서 뽑기 아이콘이 나오고, 후에 확률표에 따라 나온 캐릭터가 등장한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4)메뉴를 누르면 해당 가구들이 병렬적으로 보여진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)병렬적으로 놓여진 가구 중 하나를 누르면 가구 아이콘이 살짝 커지고 구매하기 버튼이 생성된다. 다시 아무 여백을 누르면 아이콘이 원래 사이즈로 돌아오고 구매하기 버튼이 사라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,22 +608,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>48036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>230206</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362238</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C44C775-D59D-5101-EAE3-0390604B3539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91A3BD0-4C14-8F6D-D71F-00449A14B353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,8 +645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="3892550"/>
-          <a:ext cx="3525856" cy="3505200"/>
+          <a:off x="710250" y="5250421"/>
+          <a:ext cx="4287488" cy="4785688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,23 +657,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251642</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>212769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142209</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542842</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67604202-97BB-DF21-5BA8-A3AA80C808A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042D64F4-F7D9-0C74-5C6C-6846CD21B74D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -695,8 +695,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4451350" y="3898899"/>
-          <a:ext cx="2292349" cy="3583910"/>
+          <a:off x="5585642" y="5324519"/>
+          <a:ext cx="4291700" cy="5034744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,23 +707,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28694</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31272</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>431799</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>118625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535420</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>162012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
+        <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3703E62-2162-747A-66E9-46C5D6633802}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747A0487-E68A-316E-C7E3-0B3309E5BDAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,8 +745,208 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7423150" y="3914894"/>
-          <a:ext cx="2254249" cy="3544331"/>
+          <a:off x="698022" y="10702226"/>
+          <a:ext cx="3171148" cy="5017286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426198</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281654</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>46595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CE00EC-BF5C-4E9F-E94D-7CEF45919886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4426698" y="10767228"/>
+          <a:ext cx="3855956" cy="4836867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>145059</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>29992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>659406</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>70511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F93D80A-3950-3A31-2E4B-FCF274FABB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8812809" y="10697992"/>
+          <a:ext cx="3848097" cy="4707769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>173005</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>212345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>607168</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>129433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D19BCA1-4379-3059-B8A0-4C1A9A296BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13508005" y="10658095"/>
+          <a:ext cx="4434663" cy="4806588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170089</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>215572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E78A06A-5439-D8DF-C8B1-10739D68B81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10838089" y="5347606"/>
+          <a:ext cx="3197678" cy="5091466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,9 +1261,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1276,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1291,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1109,87 +1309,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B3:B17"/>
+  <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1207,39 +1417,39 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1258,153 +1468,153 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1417,80 +1627,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1504,124 +1714,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1635,75 +1849,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1720,44 +1934,44 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>44</v>
       </c>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361376E1-9177-4132-9C3E-F0FF6DA3B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41250FF3-4ACF-4E3A-8A02-797519AFE718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,18 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미니게임3를 해금하기 위해서는 n의 재화가 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임4을 해금하기 위해서는 2n의 재화가 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임5를 해금하기 위해서는 3n의 재화가 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 상점에 들어가는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바닥지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미니멀 가격: 80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +459,118 @@
   </si>
   <si>
     <t>5)병렬적으로 놓여진 가구 중 하나를 누르면 가구 아이콘이 살짝 커지고 구매하기 버튼이 생성된다. 다시 아무 여백을 누르면 아이콘이 원래 사이즈로 돌아오고 구매하기 버튼이 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 등급에 따른 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common - 무능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)참참참 게임 점수 환산 재화 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)곰먹이 게임 점수 환산 재화 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)스키 게임 점수 환산 재화 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)점프벽 게임 점수 환산 재화 +10% -2마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)동굴탈출 게임 점수 환산 재화 +10% -2마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)점프벽 게임 점수 환산 재화 +20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*기본 형태를 베이스로 색 바꾸기or 단순 형태 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*단일 패턴 추가 + 색바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*부분적인 형태의 변화, 여러 색이 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*기본 형태와 독자적인 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*단색, 색상 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*단순 패턴 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*단순 패턴이 아닌 로고 등 특이 요소 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*특정 컨셉에 맞춘 벽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*단순 패턴 추가, 질감변화(나무 바닥, 대리석 바닥 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분, 전등 , 음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상&amp;의자 SET, 잔디, 하늘, 나무, 정원 장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 현 시점 적용되지 않는 요소를 의미한다.(임시 제거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임3를 해금하기 위해서는 500의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임4을 해금하기 위해서는 900의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임5를 해금하기 위해서는 1500의 재화가 필요하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +687,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,9 +1366,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1381,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1396,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1311,95 +1416,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
   <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1417,39 +1522,39 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1464,157 +1569,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1625,82 +1730,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1712,130 +1873,160 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="N8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="N12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>82</v>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1847,77 +2038,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1931,49 +2140,49 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41250FF3-4ACF-4E3A-8A02-797519AFE718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE91F4-3653-447C-B850-3152908475F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)가구 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들을 나누어 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2 캐릭터상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,14 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">5)'rare, unique 등급 뽑으러 가기' 메뉴를 누르면 주변이 어두워지면서 뽑기 아이콘이 나오고, 후에 확률표에 따라 나온 캐릭터가 등장한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4)메뉴를 누르면 해당 가구들이 병렬적으로 보여진다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5)병렬적으로 놓여진 가구 중 하나를 누르면 가구 아이콘이 살짝 커지고 구매하기 버튼이 생성된다. 다시 아무 여백을 누르면 아이콘이 원래 사이즈로 돌아오고 구매하기 버튼이 사라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,6 +559,38 @@
   </si>
   <si>
     <t>미니게임5를 해금하기 위해서는 1500의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)가구 상점에는 1층가구와 2층가구 메뉴 2가지가 존재한다. 또한 2층가구 메뉴는 lock되어있어 유저가 2층가구 메뉴를 눌러도 아무런 동작이 일어나지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  또한 1층가구 메뉴 마지막 장에 방 확장 요소를 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)1층가구 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)1층가구 메뉴의 방 확장 요소를 구매하면 2층가구 메뉴가 unlock되어 1층가구 메뉴와 동일한 형식으로 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)캐릭터별 능력치에 대한 설명은 판다가 이야기해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)"도감에 가면 캐릭터 별 능력을 확인할 수 있다네"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)'rare, unique 등급 뽑으러 가기' 메뉴를 누르면 주변이 어두워지면서 뽑기 아이콘이 나오고, 3초 후에 확률표에 따라 나온 캐릭터가 카드 형태로 등장한다. (카드 색상: common-회색, rare-파랑, unique-보라)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +648,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -663,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,13 +711,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,361 +738,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>48036</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>362238</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>21252</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91A3BD0-4C14-8F6D-D71F-00449A14B353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="710250" y="5250421"/>
-          <a:ext cx="4287488" cy="4785688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251642</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>212769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542842</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>135763</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042D64F4-F7D9-0C74-5C6C-6846CD21B74D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5585642" y="5324519"/>
-          <a:ext cx="4291700" cy="5034744"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31272</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>34226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>535420</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>162012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747A0487-E68A-316E-C7E3-0B3309E5BDAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698022" y="10702226"/>
-          <a:ext cx="3171148" cy="5017286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>426198</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>99228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281654</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>46595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CE00EC-BF5C-4E9F-E94D-7CEF45919886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4426698" y="10767228"/>
-          <a:ext cx="3855956" cy="4836867"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>145059</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>29992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>659406</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>70511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F93D80A-3950-3A31-2E4B-FCF274FABB89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8812809" y="10697992"/>
-          <a:ext cx="3848097" cy="4707769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>173005</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>212345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>607168</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>129433</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D19BCA1-4379-3059-B8A0-4C1A9A296BDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13508005" y="10658095"/>
-          <a:ext cx="4434663" cy="4806588"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>170089</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>34017</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>215572</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E78A06A-5439-D8DF-C8B1-10739D68B81D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10838089" y="5347606"/>
-          <a:ext cx="3197678" cy="5091466"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,37 +1043,37 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1414,103 +1091,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B3:B19"/>
+  <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>104</v>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1519,42 +1220,42 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1569,155 +1270,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1732,136 +1433,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1875,13 +1576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="79" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1889,17 +1590,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1908,17 +1609,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="N8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1926,87 +1627,87 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="N12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="8"/>
+      <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -2014,19 +1715,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2044,87 +1745,87 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2143,46 +1844,46 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE91F4-3653-447C-B850-3152908475F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612A33A-19C2-40DD-9402-4153B48425C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -466,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4)곰먹이 게임 점수 환산 재화 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5)스키 게임 점수 환산 재화 +10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,6 +587,10 @@
   </si>
   <si>
     <t>5)'rare, unique 등급 뽑으러 가기' 메뉴를 누르면 주변이 어두워지면서 뽑기 아이콘이 나오고, 3초 후에 확률표에 따라 나온 캐릭터가 카드 형태로 등장한다. (카드 색상: common-회색, rare-파랑, unique-보라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)곰먹이 게임 점수 환산 재화 +10% - 2마리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,14 +714,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,37 +1043,37 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1093,120 +1093,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
   <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1223,39 +1223,39 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1274,151 +1274,151 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1433,136 +1433,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1576,13 +1576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="79" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1590,17 +1590,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1609,17 +1609,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="N8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1627,33 +1627,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="N12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>61</v>
@@ -1663,51 +1663,51 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
@@ -1725,9 +1725,9 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1742,90 +1742,90 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1844,46 +1844,46 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612A33A-19C2-40DD-9402-4153B48425C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E672CC2-2B98-499D-AA33-CD2C7AC057B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,14 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6)캐릭터별 능력치에 대한 설명은 판다가 이야기해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ex)"도감에 가면 캐릭터 별 능력을 확인할 수 있다네"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점 메인화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,6 +583,18 @@
   </si>
   <si>
     <t>4)곰먹이 게임 점수 환산 재화 +10% - 2마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)위의 각 판다 멘트들은 5초에 한번씩 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)"도감에 가면 친구들의 능력을 확인할 수 있다네", "친구들의 능력을 사용하여 특정 맵에서 더 높은 점수를 얻어보게", "친구들을 구하러 오다니 용감하군" , +추가예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,15 +652,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -692,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +707,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1043,37 +1035,37 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1091,127 +1083,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B1:B23"/>
+  <dimension ref="B1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1223,39 +1221,39 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1274,151 +1272,151 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1437,89 +1435,89 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -1527,27 +1525,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1555,12 +1553,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>113</v>
       </c>
@@ -1580,9 +1578,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1590,17 +1588,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1609,17 +1607,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="N8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1638,17 +1636,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="N12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -1663,7 +1661,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
@@ -1682,12 +1680,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1702,12 +1700,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -1715,7 +1713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
@@ -1725,7 +1723,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -1745,29 +1743,29 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1799,12 +1797,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1820,12 +1818,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1844,44 +1842,44 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>130</v>
       </c>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E672CC2-2B98-499D-AA33-CD2C7AC057B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D7823-9F8B-4AAD-B1AD-577F309906E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="10270" yWindow="1100" windowWidth="8710" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)점프벽 게임 점수 환산 재화 +10% -2마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3)동굴탈출 게임 점수 환산 재화 +10% -2마리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,14 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2)참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1)점프벽 게임 점수 환산 재화 +20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,19 +570,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4)곰먹이 게임 점수 환산 재화 +10% - 2마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7)위의 각 판다 멘트들은 5초에 한번씩 바뀐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  ex)"도감에 가면 친구들의 능력을 확인할 수 있다네", "친구들의 능력을 사용하여 특정 맵에서 더 높은 점수를 얻어보게", "친구들을 구하러 오다니 용감하군" , +추가예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8)위의 각 판다 멘트들은 5초에 한번씩 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)캐릭터 5종 동시 가챠시 나온 캐릭터 순서대로 캐릭터 카드가 겹쳐서 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)점프벽 게임 점수 환산 재화 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)곰먹이 게임 점수 환산 재화 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)곰먹이, 스키 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)점프벽, 참참참 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,17 +1095,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B1:B24"/>
+  <dimension ref="B1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
@@ -1133,22 +1145,22 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
@@ -1188,22 +1200,27 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="5" t="s">
-        <v>138</v>
+      <c r="B22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>140</v>
+      <c r="B23" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1268,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1429,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1522,7 +1539,7 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -1532,12 +1549,12 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -1547,20 +1564,30 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>113</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1657,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>58</v>
@@ -1651,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>61</v>
@@ -1666,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -1674,7 +1701,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>62</v>
@@ -1690,14 +1717,14 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -1725,7 +1752,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1797,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1778,7 +1805,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1786,7 +1813,7 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1794,12 +1821,12 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1807,7 +1834,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1815,7 +1842,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1839,7 +1866,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1871,17 +1898,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D7823-9F8B-4AAD-B1AD-577F309906E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D21BEB-2C1F-4350-B539-79A33071620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10270" yWindow="1100" windowWidth="8710" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)동굴탈출 게임 점수 환산 재화 +10% -2마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unique-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,19 +590,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)곰먹이, 스키 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)점프벽, 참참참 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
+    <t>2)참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)동굴탈출 게임 점수 환산 재화 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)참참참, 곰먹이 게임 점수 환산 재화 각 +5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)동굴탈출, 스키 게임 점수 환산 재화 각 +5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,15 +1097,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
   <dimension ref="B1:B25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
@@ -1145,22 +1145,22 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
@@ -1200,27 +1200,27 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1539,7 +1539,7 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -1549,12 +1549,12 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -1563,31 +1563,31 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1657,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>58</v>
@@ -1678,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>61</v>
@@ -1693,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -1701,7 +1701,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>62</v>
@@ -1717,14 +1717,14 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1797,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1805,7 +1805,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1813,7 +1813,7 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1821,12 +1821,12 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1834,7 +1834,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1842,7 +1842,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1898,17 +1898,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D21BEB-2C1F-4350-B539-79A33071620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F423B7E-4ED7-4C72-AF26-4174406966F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -234,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)미니멀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)러블리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*테마 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2)빈티지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)클래식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가격: 150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +591,22 @@
   </si>
   <si>
     <t>7)동굴탈출, 스키 게임 점수 환산 재화 각 +5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)베이직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)프리미엄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)에픽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1047,9 +1047,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1101,126 +1101,126 @@
       <selection activeCell="B22" sqref="B22:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1238,39 +1238,39 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1285,155 +1285,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1448,146 +1448,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1601,148 +1601,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="79" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1750,9 +1750,9 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1770,89 +1770,89 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1865,50 +1865,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F423B7E-4ED7-4C72-AF26-4174406966F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD655C-6ED5-4843-A0C6-A4F30B023B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,18 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가격: 150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격: 300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격: 800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가격: 200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,38 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미니멀 가격: 80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니멀 가격: 90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈티지 가격: 140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래식 가격: 250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>러블리 가격: 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래식 가격: 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈티지 가격: 150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>러블리 가격: 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*1층 가구 요소 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*기본 형태와 독자적인 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*단색, 색상 변화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +559,50 @@
   </si>
   <si>
     <t>4)에픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*에픽은 각 가구별 테마가 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이직 가격: 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드 가격: 140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 가격: 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이직 가격: 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 등급에 해당하는 가구들은 고유의 테마를 가지고 있으며, 해당 가구는 별개로 구입하는 것이 불가능하며, 세트로 구매해야한다. 단, 세트는 1층세트, 2층세트로 나뉘어져 판매된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격: 500 x 가구 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄 가격: 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드 가격: 120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄 가격: 200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1101,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
@@ -1115,7 +1111,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
@@ -1125,12 +1121,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
@@ -1140,42 +1136,42 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
@@ -1185,42 +1181,42 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1405,7 +1401,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -1448,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -1466,128 +1462,128 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1599,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1612,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -1627,11 +1623,11 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -1649,15 +1645,15 @@
         <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>56</v>
@@ -1670,21 +1666,21 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="N12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O13" s="6"/>
     </row>
@@ -1693,18 +1689,18 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -1714,17 +1710,17 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
@@ -1734,15 +1730,15 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1752,7 +1748,12 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1768,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1789,70 +1790,70 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1898,17 +1899,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD655C-6ED5-4843-A0C6-A4F30B023B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97A52C-AE5B-4443-9921-2AD9CDC50699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*특정 컨셉에 맞춘 벽지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*단순 패턴 추가, 질감변화(나무 바닥, 대리석 바닥 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,18 +570,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에픽 가격: 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>베이직 가격: 80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에픽 등급에 해당하는 가구들은 고유의 테마를 가지고 있으며, 해당 가구는 별개로 구입하는 것이 불가능하며, 세트로 구매해야한다. 단, 세트는 1층세트, 2층세트로 나뉘어져 판매된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가격: 500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,15 +582,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프리미엄 가격: 300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스탠다드 가격: 120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>프리미엄 가격: 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 제작 중인 에픽 테마 - 숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 등급에 해당하는 가구들은 고유의 테마를 가지고 있으며, 해당 가구는 별개로 구입하는 것이 불가능하며, 세트로 구매해야한다. 단, 세트는 1층세트, 2층세트로 나뉘어져 판매된다. 예외로, 벽지와 바닥재는 별도 구매를 통해 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄 가격: 250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 가격: 260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 가격: 210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*특정 테마에 맞춘 바닥재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*특정 컨셉에 맞춘 바닥재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1113,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
@@ -1141,22 +1153,22 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
@@ -1196,27 +1208,27 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1444,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -1535,7 +1547,7 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -1545,12 +1557,12 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -1560,12 +1572,12 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -1578,12 +1590,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1650,7 +1662,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
@@ -1671,7 +1683,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>97</v>
@@ -1689,18 +1701,18 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -1710,17 +1722,17 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
         <v>131</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
@@ -1748,12 +1760,17 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1785,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1795,7 +1812,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -1803,7 +1820,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -1811,7 +1828,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -1819,20 +1836,20 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>99</v>
@@ -1840,20 +1857,23 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1899,17 +1919,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97A52C-AE5B-4443-9921-2AD9CDC50699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE6EF4-136D-4441-8FBA-E0C87B9B8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="꾸미기 요소 - 벽, 바닥" sheetId="5" r:id="rId7"/>
     <sheet name="미니게임 해금" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 일반 -4종 희귀 -8종 유니크 -3종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>열린게임이 많을수록 다음 게임 오픈에 필요한 재화량 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2)상점 중앙에는 판다가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[식탁, 의자], 장식세트(식탁 위), 침대, 옷장, 카페트, 화분, 창문(벽가구), 시계(벽가구), 벽걸이 선반(벽가구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,30 +358,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  ex)"마음에 드는 테마로 마이룸을 꾸며보게나"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2 캐릭터상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  ex)"친구들을 구해보게나.."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3)캐릭터 메뉴에는 common(확정구매), [rare, unique](가챠)를 나누어 판매한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4)'common 등급 구매하기 ' 메뉴를 누르면 common 등급 캐릭터 3종이 병렬적으로 보여지며 캐릭터 아래에는 가격이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)병렬적으로 놓여진 가구 중 하나를 누르면 가구 아이콘이 살짝 커지고 구매하기 버튼이 생성된다. 다시 아무 여백을 누르면 아이콘이 원래 사이즈로 돌아오고 구매하기 버튼이 사라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 등급에 따른 능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,34 +450,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)가구 상점에는 1층가구와 2층가구 메뉴 2가지가 존재한다. 또한 2층가구 메뉴는 lock되어있어 유저가 2층가구 메뉴를 눌러도 아무런 동작이 일어나지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  또한 1층가구 메뉴 마지막 장에 방 확장 요소를 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)1층가구 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)1층가구 메뉴의 방 확장 요소를 구매하면 2층가구 메뉴가 unlock되어 1층가구 메뉴와 동일한 형식으로 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점 메인화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5)'rare, unique 등급 뽑으러 가기' 메뉴를 누르면 주변이 어두워지면서 뽑기 아이콘이 나오고, 3초 후에 확률표에 따라 나온 캐릭터가 카드 형태로 등장한다. (카드 색상: common-회색, rare-파랑, unique-보라)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ex)"도감에 가면 친구들의 능력을 확인할 수 있다네", "친구들의 능력을 사용하여 특정 맵에서 더 높은 점수를 얻어보게", "친구들을 구하러 오다니 용감하군" , +추가예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6)캐릭터 5종 동시 가챠시 나온 캐릭터 순서대로 캐릭터 카드가 겹쳐서 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1)점프벽 게임 점수 환산 재화 +10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,6 +563,50 @@
   </si>
   <si>
     <t>*특정 컨셉에 맞춘 바닥재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)가구 상점에는 1층가구와 2층가구 메뉴 2가지가 존재한다. 최초 2층가구 메뉴는 lock되어있고 2층가구 메뉴를 push시 아무런 동작이 일어나지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)1층가구 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다. 1층가구 메뉴 마지막 장에는 방 확장 요소를 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)1층가구 메뉴의 방 확장 요소를 구매하면 2층가구 메뉴가 unlock된다. 1층가구 메뉴와 동일한 형식으로 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)상점 중앙에는 판다가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다. 멘트: "마음에 드는 테마로 마이룸을 꾸며보게나"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)병렬적으로 놓여진 가구 중 하나를 누르면 가구 아이콘이 살짝 커지고 구매하기 버튼이 생성된다. 여백을 누르면 아이콘이 원래 사이즈로 돌아오고 구매하기 버튼이 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)상점 중앙에는 판다가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다. 멘트: "친구들은 내 손에 있다.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)'common 등급 구매하기 ' 메뉴 push시 common 등급 캐릭터 5종이 병렬적으로 보여지며 캐릭터 아래에는 가격이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)'rare, unique 등급 뽑으러 가기' 메뉴 push시 주변이 어두워지면서 뽑기 아이콘이 흔들리며 등장한다. 3초 후 확률표에 따라 나온 캐릭터가 카드 형태로 등장한다. (카드 색상: common-회색, rare-파랑, unique-보라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)"도감에 가면 친구들의 능력을 확인할 수 있다네", "친구들의 능력을 사용하여 특정 맵에서 더 높은 점수를 얻어보게", "친구들을 구하러 오다니 용감하군" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)캐릭터 5종 동시 가챠시 나온 캐릭터 순서대로 캐릭터 카드가 겹쳐서 보여진다. 맨 첫장에 있는 카드 push시 첫장에 있는 카드는 화면에서 사라지고 다음 카드가 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 -5종 희귀 -7종 유니크 -3종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1055,9 +1047,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1062,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1077,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1103,132 +1095,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B1:B25"/>
+  <dimension ref="B1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:J22"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1242,43 +1219,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883EF169-EA1D-4DD0-AC2C-AE5CEFA37873}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1293,157 +1270,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1456,146 +1433,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="95" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1609,148 +1586,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="79" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="N12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1758,19 +1735,19 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1788,92 +1765,92 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
         <v>132</v>
       </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1890,46 +1867,46 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE6EF4-136D-4441-8FBA-E0C87B9B8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476FF33-43CA-4AE3-83C9-177D227C61FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*가챠 파트 쓰기전에 캐릭터 재화 - 가챠 써둘 것 (15pt, 굵게)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미니게임 해금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 공통 - 조각 20개, 가챠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*캐릭터 획득 방법 - 확정 구매? 가챠?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   *만약 중복이다 - 조각 1개 -&gt; 20개 원하는 캐릭터 선택뽑기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>열린게임이 많을수록 다음 게임 오픈에 필요한 재화량 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,22 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common - 각 20%(합 60%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique - 각 2%(합 6%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare - 각 4.25%(합 34%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가챠 1회당 가격 - 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 재화 - 가챠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,18 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가챠 5회(연차) 가격 - 900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가챠 중복 시 - 각 중복 당 조각(삼각형 유리조각) 1개 증정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common - 5개 rare - 15개 unique - 30개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">게임 메인화면 하단에 위치해 있는 상점 버튼을 누르면 두가지 상점 아이콘(가구 상점, 캐릭터 상점)이 등장한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,14 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8)위의 각 판다 멘트들은 5초에 한번씩 바뀐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1)점프벽 게임 점수 환산 재화 +10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,14 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4)1층가구 메뉴에는 [식탁,의자 SET], [벽지,바닥], [시계] 등 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다. 1층가구 메뉴 마지막 장에는 방 확장 요소를 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)1층가구 메뉴의 방 확장 요소를 구매하면 2층가구 메뉴가 unlock된다. 1층가구 메뉴와 동일한 형식으로 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2)상점 중앙에는 판다가 간단한 멘트로 하단 메뉴에 대해 보충 설명해준다. 멘트: "마음에 드는 테마로 마이룸을 꾸며보게나"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,15 +542,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  ex)"도감에 가면 친구들의 능력을 확인할 수 있다네", "친구들의 능력을 사용하여 특정 맵에서 더 높은 점수를 얻어보게", "친구들을 구하러 오다니 용감하군" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6)캐릭터 5종 동시 가챠시 나온 캐릭터 순서대로 캐릭터 카드가 겹쳐서 보여진다. 맨 첫장에 있는 카드 push시 첫장에 있는 카드는 화면에서 사라지고 다음 카드가 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 일반 -5종 희귀 -7종 유니크 -3종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공통 - 가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가챠 1회당 가격 - 400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare - 각 13%(합 91%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique - 각 3%(합 9%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)1층가구 메뉴에는 [식탁,의자 SET], [침대], [옷장], [화분&amp;전등], [창문], [선반], [벽지], [바닥], [시계] 순서대로 구성되어 있다. 1층가구 메뉴 마지막 장에는 방 확장 요소를 판매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5)1층가구 메뉴의 방 확장 요소를 구매하면 2층가구 메뉴가 unlock된다. 1층가구 메뉴와 동일한 형식으로 마이룸을 꾸밀 수 있는 요소들이 병렬적으로 보여진다. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//2층 가구 메뉴 추가예정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ex)"도감에 가면 친구들의 능력을 확인할 수 있다네", "친구들의 능력을 사용하여 특정 맵에서 더 높은 점수를 얻어보게", "친구를 구하러 오다니 용감하군" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)위의 각 판다 멘트들은 3초에 한번씩 바뀐다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +643,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1095,117 +1090,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B1:B22"/>
+  <dimension ref="B1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>142</v>
+      <c r="B19" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="5" t="s">
-        <v>105</v>
+      <c r="B20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1219,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883EF169-EA1D-4DD0-AC2C-AE5CEFA37873}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1270,73 +1260,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1360,67 +1345,67 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1446,133 +1431,108 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>76</v>
+      <c r="A18" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>83</v>
+      <c r="B21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>84</v>
+      <c r="B22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="79" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1594,140 +1554,140 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="N8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="N12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1737,17 +1697,17 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1761,96 +1721,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1871,42 +1831,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476FF33-43CA-4AE3-83C9-177D227C61FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850157C-1E54-4766-A122-F9CCF4505147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,46 @@
   </si>
   <si>
     <t>7)위의 각 판다 멘트들은 3초에 한번씩 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임1은 기본 제공된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임2를 해금하기 위해서는 600의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임3를 해금하기 위해서는 1000의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임4를 해금하기 위해서는 1400의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임5를 해금하기 위해서는 1800의 재화가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)미니게임 해금은 목록 화면에서 직접 해금할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)구매창은 멘트와 Yes/No 버튼으로 구성되어 있다. Yes버튼 push시 미니게임이 해금되며, No버튼 push시 구매창이 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4)잠겨있는 게임을 push하면 즉시 구매창이 나타난다. // ex)구매창 멘트: 500의 재화로 미니게임3를 해금하시겠습니까? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1821,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1835,7 +1875,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1851,22 +1891,72 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850157C-1E54-4766-A122-F9CCF4505147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5170A0A-9EDA-40B4-B754-E4C3E8C3AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
@@ -628,11 +628,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5)구매창은 멘트와 Yes/No 버튼으로 구성되어 있다. Yes버튼 push시 미니게임이 해금되며, No버튼 push시 구매창이 사라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4)잠겨있는 게임을 push하면 즉시 구매창이 나타난다. // ex)구매창 멘트: 500의 재화로 미니게임3를 해금하시겠습니까? </t>
+    <t>4)잠겨있는 게임을 push하면 즉시 구매창이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)구매창은 멘트와 해금/취소 버튼으로 구성되어 있다. 해금버튼 push시 미니게임이 해금되며, 취소버튼 push시 구매창이 사라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1896,12 +1896,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5170A0A-9EDA-40B4-B754-E4C3E8C3AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850157C-1E54-4766-A122-F9CCF4505147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
@@ -628,11 +628,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4)잠겨있는 게임을 push하면 즉시 구매창이 나타난다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)구매창은 멘트와 해금/취소 버튼으로 구성되어 있다. 해금버튼 push시 미니게임이 해금되며, 취소버튼 push시 구매창이 사라진다.</t>
+    <t>5)구매창은 멘트와 Yes/No 버튼으로 구성되어 있다. Yes버튼 push시 미니게임이 해금되며, No버튼 push시 구매창이 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4)잠겨있는 게임을 push하면 즉시 구매창이 나타난다. // ex)구매창 멘트: 500의 재화로 미니게임3를 해금하시겠습니까? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1896,12 +1896,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850157C-1E54-4766-A122-F9CCF4505147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1A7D5-C823-42B5-8018-37383FD2E1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="꾸미기 요소 - 벽, 바닥" sheetId="5" r:id="rId7"/>
     <sheet name="미니게임 해금" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꾸미기 요소 - 가구 (벽가구 요소 시계, 창문 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미니게임 순서대로 열기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[식탁, 의자], 장식세트(식탁 위), 침대, 옷장, 카페트, 화분, 창문(벽가구), 시계(벽가구), 벽걸이 선반(벽가구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[식탁,의자], 침대, 옷장, 카펫, 창문, 시계, 벽걸이 선반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*가구는 중복 구매 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1)common 등급 캐릭터는 확정구매할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,43 +342,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*기본 형태를 베이스로 색 바꾸기or 단순 형태 변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*단일 패턴 추가 + 색바꾸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*부분적인 형태의 변화, 여러 색이 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*단색, 색상 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*단순 패턴 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*단순 패턴이 아닌 로고 등 특이 요소 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*단순 패턴 추가, 질감변화(나무 바닥, 대리석 바닥 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바닥재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화분, 전등 , 음식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책상&amp;의자 SET, 잔디, 하늘, 나무, 정원 장식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,6 +589,22 @@
   </si>
   <si>
     <t xml:space="preserve">4)잠겨있는 게임을 push하면 즉시 구매창이 나타난다. // ex)구매창 멘트: 500의 재화로 미니게임3를 해금하시겠습니까? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이직,  스탠다드, 프리미엄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁, 의자], 침대, 옷장, 카페트, 화분, 창문, 시계, 벽걸이 선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 하늘, 나무, 정원 장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸미기 요소 - 가구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +733,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,9 +1057,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1072,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1087,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1136,106 +1111,106 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1253,39 +1228,39 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1304,148 +1279,148 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1462,117 +1437,117 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1584,171 +1559,247 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="N6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="N8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="N9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="N6" t="s">
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1759,99 +1810,90 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43660591-C1B4-4B9F-86F4-4986F86D91A2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1863,100 +1905,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1A7D5-C823-42B5-8018-37383FD2E1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ACCDB8-6884-4ACE-8F63-D3FAF759DBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -596,15 +596,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[식탁, 의자], 침대, 옷장, 카페트, 화분, 창문, 시계, 벽걸이 선반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블, 하늘, 나무, 정원 장식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꾸미기 요소 - 가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 꾸미기1, 꾸미기2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,14 +728,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,32 +1060,32 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -1561,15 +1561,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="6"/>
@@ -1688,7 +1688,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H19" s="6"/>
@@ -1710,7 +1710,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="6"/>
@@ -1718,7 +1718,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="6"/>
@@ -1748,7 +1748,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="6"/>
@@ -1905,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ACCDB8-6884-4ACE-8F63-D3FAF759DBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAABC860-AB89-4A6B-89F9-6E5D2F3A2FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)캐릭터 메뉴에는 common(확정구매), [rare, unique](가챠)를 나누어 판매한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 등급에 따른 능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,19 +486,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4)'common 등급 구매하기 ' 메뉴 push시 common 등급 캐릭터 5종이 병렬적으로 보여지며 캐릭터 아래에는 가격이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)'rare, unique 등급 뽑으러 가기' 메뉴 push시 주변이 어두워지면서 뽑기 아이콘이 흔들리며 등장한다. 3초 후 확률표에 따라 나온 캐릭터가 카드 형태로 등장한다. (카드 색상: common-회색, rare-파랑, unique-보라)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 일반 -5종 희귀 -7종 유니크 -3종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6)캐릭터별 능력치에 대한 설명은 도감에 있으며 판다가 보충 설명해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -548,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7)위의 각 판다 멘트들은 3초에 한번씩 바뀐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +585,46 @@
   </si>
   <si>
     <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 꾸미기1, 꾸미기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)캐릭터 메뉴는 common등급 구매하기, rare&amp;unique등급 뽑으러가기, 캐릭터조각권 사용하러가기 3가지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)'common 등급 구매하기' push시 common 등급 캐릭터 5종이 보여지며 캐릭터 아래에는 가격이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)'rare&amp;unique 등급 뽑으러 가기' push시 주변이 어두워지면서 뽑기 아이콘이 등장한다. 뽑기 push시 확률표에 따라 나온 캐릭터가 카드 형태로 등장한다. (카드 색상: common-회색, rare-파랑, unique-보라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)'캐릭터조각권 사용하러가기' push시 rare등급부터 unique등급까지 카드 형태로 표시되며 카드 push시 구매창이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8)캐릭터상점의 판다는 3초에 한번씩 상점에 대한 보충 설명해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7)캐릭터조각권이 부족할시에는 알림창이 표시된다. (알림창 멘트:조각권이 부족합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 조각권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 발생시 캐릭터 조각권 20 증정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare등급-&gt;조각권 100 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique등급-조각권 200 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,9 +1077,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1092,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1107,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1105,112 +1125,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E17D5BB-F7B6-4E79-8251-21A24B7E1252}">
-  <dimension ref="B1:B21"/>
+  <dimension ref="B1:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>125</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1228,39 +1253,39 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1275,150 +1300,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4FA4-2CEF-42FD-8B69-578F011E6BB6}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1431,123 +1456,143 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="65" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1561,28 +1606,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1595,9 +1640,9 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1605,7 +1650,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="N8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1659,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1626,27 +1671,27 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="N12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>50</v>
@@ -1656,48 +1701,48 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1709,7 +1754,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
@@ -1723,7 +1768,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
@@ -1735,9 +1780,9 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1747,9 +1792,9 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1774,9 +1819,9 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1816,81 +1861,81 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1909,96 +1954,96 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAABC860-AB89-4A6B-89F9-6E5D2F3A2FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE337B-508C-473B-8B87-69DC132E529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 재화 - 확정 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미니게임 해금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)common 등급 캐릭터는 확정구매할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)rare, unique 등급 캐릭터는 가챠로만 획득 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">가챠 확률 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 common 캐릭터 가격 - 150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">게임 메인화면 하단에 위치해 있는 상점 버튼을 누르면 두가지 상점 아이콘(가구 상점, 캐릭터 상점)이 등장한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,14 +479,6 @@
   </si>
   <si>
     <t>가챠 1회당 가격 - 400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare - 각 13%(합 91%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique - 각 3%(합 9%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -620,11 +596,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rare등급-&gt;조각권 100 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique등급-조각권 200 필요</t>
+    <t>rare - 각 4.2%(합 30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique - 각 3.3%(합 10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common - 각 14%(합 70%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common등급 -&gt; 조각권 100 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique등급-조각권 800 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare등급-&gt;조각권 300 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,107 +1127,107 @@
   <sheetData>
     <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1293,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1318,17 +1310,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
@@ -1385,67 +1377,67 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1458,141 +1450,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13C376-C726-43AF-85B6-9951DE27A601}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="65" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" zoomScale="65" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>60</v>
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1614,26 +1596,26 @@
   <sheetData>
     <row r="1" spans="1:18" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1642,7 +1624,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1652,7 +1634,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="N8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1661,10 +1643,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1673,78 +1655,78 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="N12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1756,7 +1738,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1764,13 +1746,13 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1782,7 +1764,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1794,7 +1776,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1821,7 +1803,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1865,77 +1847,77 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1950,100 +1932,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE337B-508C-473B-8B87-69DC132E529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6532E7D-7A66-48D4-8E09-63DD59482429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이블, 음식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 꾸미기1, 꾸미기2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,6 +613,18 @@
   </si>
   <si>
     <t>rare등급-&gt;조각권 300 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 음식, 시소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 음식 가격: 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소 가격: 500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,9 +1077,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1084,7 +1092,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1107,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1123,109 +1131,109 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>114</v>
       </c>
@@ -1245,39 +1253,39 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1296,146 +1304,146 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1454,74 +1462,74 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1529,37 +1537,37 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1567,12 +1575,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>82</v>
       </c>
@@ -1588,28 +1596,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1622,9 +1630,9 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1632,7 +1640,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="N8" s="6" t="s">
         <v>44</v>
       </c>
@@ -1641,7 +1649,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1653,7 +1661,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -1661,17 +1669,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="N12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -1683,28 +1691,36 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>89</v>
       </c>
@@ -1724,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1736,7 +1752,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>56</v>
       </c>
@@ -1750,7 +1766,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -1762,7 +1778,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>73</v>
       </c>
@@ -1774,7 +1790,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>99</v>
       </c>
@@ -1801,7 +1817,7 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>98</v>
       </c>
@@ -1843,44 +1859,44 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -1891,27 +1907,27 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
@@ -1932,98 +1948,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFB936-DE86-4484-8AF5-4F79AB01683D}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>121</v>
       </c>

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6532E7D-7A66-48D4-8E09-63DD59482429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4950EA-4508-4EE0-ACA0-BDB1BE7083BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +625,10 @@
   </si>
   <si>
     <t>시소 가격: 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층 방 확장 가격 : 800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1719,6 +1723,9 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">

--- a/Design/MiniGame_재화파트.xlsx
+++ b/Design/MiniGame_재화파트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4950EA-4508-4EE0-ACA0-BDB1BE7083BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E30E7E1-1C79-49E6-BE53-7A06ED736777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2F47DE9F-AC37-49D6-B8A2-12B35A4E0FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Minigame 기획서 재화 파트_강민재, 김현지" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
   <si>
     <t>담당파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,25 @@
   <si>
     <t>2층 방 확장 가격 : 800</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-500점 미만 : n / 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-500이상 1500점 미만 : n / 10 + (n / 100) * 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500점 이상 : n / 10 + (n / 100) * 5 + (n / 1000) * 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*하드 모드 : 위 재화량에 + 50% 추가하여 지급 ( 2.먹의 게임의 경우, +30% + 50% 하여 총 80%를 추가로 지급한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*예외 사항 : 2.먹이 게임의 경우 + 30%를 추가로 지급한다</t>
   </si>
 </sst>
 </file>
@@ -1251,52 +1270,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883EF169-EA1D-4DD0-AC2C-AE5CEFA37873}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1600,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A72BD-482B-4443-9F16-248C19858E7D}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="79" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
